--- a/teaching/traditional_assets/database/data/canada/canada_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0755</v>
+        <v>0.08385000000000001</v>
       </c>
       <c r="E2">
-        <v>0.0451</v>
+        <v>0.07545</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.006739040495777521</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.005264103133959698</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>364.5</v>
+        <v>217.9</v>
       </c>
       <c r="L2">
-        <v>0.2691228588304785</v>
+        <v>0.3372542950007739</v>
       </c>
       <c r="M2">
-        <v>194.3923</v>
+        <v>80.7525</v>
       </c>
       <c r="N2">
-        <v>0.05171933698717607</v>
+        <v>0.03838776383342841</v>
       </c>
       <c r="O2">
-        <v>0.5333122085048011</v>
+        <v>0.3705943093162001</v>
       </c>
       <c r="P2">
-        <v>156.6923</v>
+        <v>76.88249999999999</v>
       </c>
       <c r="Q2">
-        <v>0.04168900654499015</v>
+        <v>0.03654806046776954</v>
       </c>
       <c r="R2">
-        <v>0.4298828532235939</v>
+        <v>0.3528338687471317</v>
       </c>
       <c r="S2">
-        <v>37.7</v>
+        <v>3.870000000000005</v>
       </c>
       <c r="T2">
-        <v>0.1939377228419027</v>
+        <v>0.04792421287266654</v>
       </c>
       <c r="U2">
-        <v>267.3</v>
+        <v>279.2</v>
       </c>
       <c r="V2">
-        <v>0.07111690523067099</v>
+        <v>0.1327248526335805</v>
       </c>
       <c r="W2">
-        <v>0.1035883547731889</v>
+        <v>0.09790290068218413</v>
       </c>
       <c r="X2">
-        <v>0.05937220303468088</v>
+        <v>0.04501769685016251</v>
       </c>
       <c r="Y2">
-        <v>0.04421615173850803</v>
+        <v>0.05288520383202162</v>
       </c>
       <c r="Z2">
-        <v>0.09753675911077198</v>
+        <v>0.1593891849220446</v>
       </c>
       <c r="AA2">
-        <v>-0.0006912298729022978</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04315269280089305</v>
+        <v>0.03429712812302017</v>
       </c>
       <c r="AC2">
-        <v>-0.04387232976065694</v>
+        <v>-0.03429712812302017</v>
       </c>
       <c r="AD2">
-        <v>10965</v>
+        <v>1959.6</v>
       </c>
       <c r="AE2">
-        <v>282.5467822374054</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11247.5467822374</v>
+        <v>1959.6</v>
       </c>
       <c r="AG2">
-        <v>10980.24678223741</v>
+        <v>1680.4</v>
       </c>
       <c r="AH2">
-        <v>0.7495293059208904</v>
+        <v>0.4822799763733018</v>
       </c>
       <c r="AI2">
-        <v>0.7200067278676514</v>
+        <v>0.4208943683147901</v>
       </c>
       <c r="AJ2">
-        <v>0.7449868327195248</v>
+        <v>0.4440803382663848</v>
       </c>
       <c r="AK2">
-        <v>0.7151323312175192</v>
+        <v>0.3839510122012521</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>231.4169937951121</v>
-      </c>
-      <c r="AP2">
-        <v>231.7387780641891</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0755</v>
+        <v>0.0677</v>
       </c>
       <c r="E3">
-        <v>0.0451</v>
+        <v>-0.0361</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.001378376551510886</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.001016134735413012</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>217.9</v>
+        <v>203.3</v>
       </c>
       <c r="L3">
-        <v>0.3566868554591586</v>
+        <v>0.3359775243761362</v>
       </c>
       <c r="M3">
-        <v>108.5</v>
+        <v>79.17</v>
       </c>
       <c r="N3">
-        <v>0.05067015364498201</v>
+        <v>0.0404671846248211</v>
       </c>
       <c r="O3">
-        <v>0.4979348324919688</v>
+        <v>0.3894244958189867</v>
       </c>
       <c r="P3">
-        <v>70.8</v>
+        <v>75.3</v>
       </c>
       <c r="Q3">
-        <v>0.03306402652594218</v>
+        <v>0.03848906154160703</v>
       </c>
       <c r="R3">
-        <v>0.3249196879302432</v>
+        <v>0.3703885882931628</v>
       </c>
       <c r="S3">
-        <v>37.7</v>
+        <v>3.870000000000005</v>
       </c>
       <c r="T3">
-        <v>0.3474654377880185</v>
+        <v>0.04888215233042825</v>
       </c>
       <c r="U3">
-        <v>92.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="V3">
-        <v>0.04329145845981413</v>
+        <v>0.04375383357186669</v>
       </c>
       <c r="W3">
-        <v>0.1234421028778609</v>
+        <v>0.1046697214642434</v>
       </c>
       <c r="X3">
-        <v>0.05937220303468088</v>
+        <v>0.0535631302426135</v>
       </c>
       <c r="Y3">
-        <v>0.06406989984317998</v>
+        <v>0.05110659122162993</v>
       </c>
       <c r="Z3">
-        <v>0.173570354784533</v>
+        <v>0.1532791245535375</v>
       </c>
       <c r="AA3">
-        <v>-0.000176370866534524</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04315269280089305</v>
+        <v>0.03388506737886177</v>
       </c>
       <c r="AC3">
-        <v>-0.04332906366742757</v>
+        <v>-0.03388506737886177</v>
       </c>
       <c r="AD3">
-        <v>1866.6</v>
+        <v>1947</v>
       </c>
       <c r="AE3">
-        <v>61.21025117659001</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1927.81025117659</v>
+        <v>1947</v>
       </c>
       <c r="AG3">
-        <v>1835.11025117659</v>
+        <v>1861.4</v>
       </c>
       <c r="AH3">
-        <v>0.4737670232992975</v>
+        <v>0.4987959215043296</v>
       </c>
       <c r="AI3">
-        <v>0.4625364115343833</v>
+        <v>0.4374003100217914</v>
       </c>
       <c r="AJ3">
-        <v>0.461499225497066</v>
+        <v>0.4875582796374875</v>
       </c>
       <c r="AK3">
-        <v>0.4503105700243955</v>
+        <v>0.4263691962342808</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>163.7368421052632</v>
-      </c>
-      <c r="AP3">
-        <v>160.974583436543</v>
       </c>
     </row>
     <row r="4">
@@ -847,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.129</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <v>0.289</v>
+        <v>0.187</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.005669917577090475</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.004114049199301193</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="L4">
-        <v>0.3713592233009709</v>
+        <v>0.3560975609756097</v>
       </c>
       <c r="M4">
-        <v>1.1183</v>
+        <v>1.5825</v>
       </c>
       <c r="N4">
-        <v>0.009242148760330578</v>
+        <v>0.01075067934782609</v>
       </c>
       <c r="O4">
-        <v>0.07309150326797385</v>
+        <v>0.1083904109589041</v>
       </c>
       <c r="P4">
-        <v>1.1183</v>
+        <v>1.5825</v>
       </c>
       <c r="Q4">
-        <v>0.009242148760330578</v>
+        <v>0.01075067934782609</v>
       </c>
       <c r="R4">
-        <v>0.07309150326797385</v>
+        <v>0.1083904109589041</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,195 +883,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>105.7</v>
+        <v>193.6</v>
       </c>
       <c r="V4">
-        <v>0.8735537190082645</v>
+        <v>1.315217391304348</v>
       </c>
       <c r="W4">
-        <v>0.1035883547731889</v>
+        <v>0.09113607990012484</v>
       </c>
       <c r="X4">
-        <v>0.04832064468493188</v>
+        <v>0.03647226345771152</v>
       </c>
       <c r="Y4">
-        <v>0.05526771008825702</v>
+        <v>0.05466381644241333</v>
       </c>
       <c r="Z4">
-        <v>0.3791015555565933</v>
+        <v>0.3871576959395657</v>
       </c>
       <c r="AA4">
-        <v>-0.00155964245109144</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0423126873095655</v>
+        <v>0.03470918886717857</v>
       </c>
       <c r="AC4">
-        <v>-0.04387232976065694</v>
+        <v>-0.03470918886717857</v>
       </c>
       <c r="AD4">
-        <v>29.1</v>
+        <v>12.6</v>
       </c>
       <c r="AE4">
-        <v>4.578003020880638</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>33.67800302088064</v>
+        <v>12.6</v>
       </c>
       <c r="AG4">
-        <v>-72.02199697911936</v>
+        <v>-181</v>
       </c>
       <c r="AH4">
-        <v>0.2177297505989543</v>
+        <v>0.07884856070087611</v>
       </c>
       <c r="AI4">
-        <v>0.1557882973765267</v>
+        <v>0.06161369193154034</v>
       </c>
       <c r="AJ4">
-        <v>-1.470496805441709</v>
+        <v>5.355029585798815</v>
       </c>
       <c r="AK4">
-        <v>-0.6519125528138576</v>
+        <v>-16.60550458715596</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>42.66862170087976</v>
-      </c>
-      <c r="AP4">
-        <v>-105.6041011424037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laurentian Bank of Canada (TSX:LB)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Banks (Regional)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.0212</v>
-      </c>
-      <c r="E5">
-        <v>0.0424</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>-0.01146476663532244</v>
-      </c>
-      <c r="J5">
-        <v>-0.01009606880763136</v>
-      </c>
-      <c r="K5">
-        <v>131.3</v>
-      </c>
-      <c r="L5">
-        <v>0.1869571408230101</v>
-      </c>
-      <c r="M5">
-        <v>84.774</v>
-      </c>
-      <c r="N5">
-        <v>0.05665575085210185</v>
-      </c>
-      <c r="O5">
-        <v>0.6456511805026656</v>
-      </c>
-      <c r="P5">
-        <v>84.774</v>
-      </c>
-      <c r="Q5">
-        <v>0.05665575085210185</v>
-      </c>
-      <c r="R5">
-        <v>0.6456511805026656</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="V5">
-        <v>0.04604691572545613</v>
-      </c>
-      <c r="W5">
-        <v>0.0766446792364719</v>
-      </c>
-      <c r="X5">
-        <v>0.1536477602650112</v>
-      </c>
-      <c r="Y5">
-        <v>-0.07700308102853932</v>
-      </c>
-      <c r="Z5">
-        <v>0.06846524979899253</v>
-      </c>
-      <c r="AA5">
-        <v>-0.0006912298729022978</v>
-      </c>
-      <c r="AB5">
-        <v>0.04335062199046648</v>
-      </c>
-      <c r="AC5">
-        <v>-0.04404185186336878</v>
-      </c>
-      <c r="AD5">
-        <v>9069.299999999999</v>
-      </c>
-      <c r="AE5">
-        <v>216.7585280399347</v>
-      </c>
-      <c r="AF5">
-        <v>9286.058528039934</v>
-      </c>
-      <c r="AG5">
-        <v>9217.158528039934</v>
-      </c>
-      <c r="AH5">
-        <v>0.8612270222596647</v>
-      </c>
-      <c r="AI5">
-        <v>0.8263559896989108</v>
-      </c>
-      <c r="AJ5">
-        <v>0.8603345505950493</v>
-      </c>
-      <c r="AK5">
-        <v>0.825284752134684</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>256.9206798866855</v>
-      </c>
-      <c r="AP5">
-        <v>261.1093067433409</v>
       </c>
     </row>
   </sheetData>
